--- a/biology/Botanique/Liste_d'espèces_de_Potentilles/Liste_d'espèces_de_Potentilles.xlsx
+++ b/biology/Botanique/Liste_d'espèces_de_Potentilles/Liste_d'espèces_de_Potentilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_Potentilles</t>
+          <t>Liste_d'espèces_de_Potentilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici la liste d'espèces de Potentilles
-Selon The Plant List            (26 septembre 2021)[1] :
+Selon The Plant List            (26 septembre 2021) :
 Potentilla acaulis L.
 Potentilla achillea (Soják) Soják
 Potentilla acuminata H.M.Hall
@@ -809,7 +821,7 @@
 Potentilla wismariensis T.Gregor &amp; Henker
 Potentilla wrangelliana Fisch. &amp; Avé-Lall.
 Potentilla xizangensis T.T.Yu &amp; C.L.Li
-Selon ITIS      (26 septembre 2021)[2] :
+Selon ITIS      (26 septembre 2021) :
 Potentilla albiflora L.O. Williams
 Potentilla ambigens Greene
 Potentilla angelliae N.H. Holmgren
@@ -855,7 +867,7 @@
 Potentilla verna L.
 Potentilla versicolor Rydb.
 Potentilla wheeleri S. Watson
-Selon GBIF       (21 juin 2022)[3] :
+Selon GBIF       (21 juin 2022) :
 Potentilla acaulis L.
 Potentilla acuminata H.M.Hall
 Potentilla adamsiana (Schultz) Zimmeter
@@ -866,7 +878,7 @@
 Potentilla alba L.
 Potentilla sterneri
 Potentilla zichyi
-Selon GRIN            (26 septembre 2021)[4] :
+Selon GRIN            (26 septembre 2021) :
 Potentilla curviseta
 Potentilla dickinsii
 Potentilla dombeyi
